--- a/data/aci.xlsx
+++ b/data/aci.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01 学习资料\01 LiCOR\LI-6800 培训资料\02 数据\江西气象研究所数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\job\LI-6800-R-series\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Measurements" sheetId="1" r:id="rId1"/>
     <sheet name="Remarks" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -811,7 +811,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -856,74 +856,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -936,14 +868,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1224,10 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:DT28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <pane xSplit="12" topLeftCell="BK1" activePane="topRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="DC7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A2:DT28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2518,7 +2448,7 @@
         <v>1513614616.5999999</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H30" si="0">BV17*AI17*(BT17-BU17)/(100*BN17*(1000-AI17*BT17))</f>
+        <f t="shared" ref="H17:H28" si="0">BV17*AI17*(BT17-BU17)/(100*BN17*(1000-AI17*BT17))</f>
         <v>4.5726249398078825E-3</v>
       </c>
       <c r="I17">
@@ -7502,6 +7432,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
